--- a/excel/finished/焦化45/CK45-炼焦-4#焦炉加热制度报表（日）.xlsx
+++ b/excel/finished/焦化45/CK45-炼焦-4#焦炉加热制度报表（日）.xlsx
@@ -360,7 +360,7 @@
     <t>CK45_L1_R_CI4BFGCokeSideAcc_1m_avg</t>
   </si>
   <si>
-    <t>CK45_L1_R_CIPT_12_2_1m_avg</t>
+    <t>CK45_L1_R_CIPI_01_2_1m_avg</t>
   </si>
   <si>
     <t>CK45_L1_R_CIPI_02_2_1m_avg</t>
@@ -813,7 +813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -938,37 +938,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -1009,6 +978,65 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1086,7 +1114,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1241,55 +1269,70 @@
     <xf fontId="17" fillId="0" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="18" fillId="0" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="17" fillId="0" borderId="9" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="16" fillId="0" borderId="10" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="16" fillId="0" borderId="10" numFmtId="160" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="16" fillId="0" borderId="11" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="0" borderId="13" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="6" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="14" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="6" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="14" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="18" fillId="0" borderId="6" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="18" fillId="0" borderId="14" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="9" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="15" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="10" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="11" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="16" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="12" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="9" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="13" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="10" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="13" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="10" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="14" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="11" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="18" fillId="0" borderId="15" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="18" fillId="0" borderId="17" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="16" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="18" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="17" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="19" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="18" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="20" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="19" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="21" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="20" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="22" numFmtId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5235,16 +5278,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:rowOff>238123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:rowOff>238123</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5255,7 +5298,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7247890" y="942340"/>
+          <a:off x="5143499" y="942973"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5779,11 +5822,13 @@
     <col min="3" max="6" style="1" width="9"/>
     <col min="7" max="7" style="2" width="9"/>
     <col min="8" max="8" style="1" width="9"/>
-    <col customWidth="1" min="9" max="9" style="2" width="10.08203125"/>
-    <col min="10" max="10" style="1" width="9"/>
-    <col customWidth="1" min="11" max="11" style="2" width="10.08203125"/>
-    <col min="12" max="12" style="1" width="9"/>
-    <col min="13" max="36" style="2" width="9"/>
+    <col customWidth="1" hidden="1" min="9" max="9" style="2" width="10.08203125"/>
+    <col customWidth="1" hidden="1" min="10" max="10" style="1" width="0"/>
+    <col customWidth="1" hidden="1" min="11" max="11" style="2" width="10.08203125"/>
+    <col customWidth="1" hidden="1" min="12" max="12" style="1" width="0"/>
+    <col min="13" max="26" style="2" width="9"/>
+    <col customWidth="1" hidden="1" min="27" max="28" style="2" width="0"/>
+    <col min="29" max="36" style="2" width="9"/>
     <col customWidth="1" min="37" max="37" style="2" width="10.83203125"/>
     <col min="38" max="38" style="2" width="9"/>
     <col customWidth="1" hidden="1" min="39" max="47" style="2" width="0"/>
@@ -6416,7 +6461,7 @@
       <c r="AU8" s="29"/>
       <c r="AV8" s="37"/>
     </row>
-    <row ht="18" hidden="1" r="9">
+    <row ht="17.25" hidden="1" r="9">
       <c r="B9" s="22" t="s">
         <v>61</v>
       </c>
@@ -6835,7 +6880,7 @@
         <v/>
       </c>
       <c r="J12" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H3="","",_jiaore4_day_halfhour!H3/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H3="","",_jiaore4_day_halfhour!H3)</f>
         <v/>
       </c>
       <c r="K12" s="47" t="str">
@@ -6843,7 +6888,7 @@
         <v/>
       </c>
       <c r="L12" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J3="","",_jiaore4_day_halfhour!J3/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J3="","",_jiaore4_day_halfhour!J3)</f>
         <v/>
       </c>
       <c r="M12" s="47" t="str">
@@ -7021,7 +7066,7 @@
         <v/>
       </c>
       <c r="J13" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H4="","",_jiaore4_day_halfhour!H4/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H4="","",_jiaore4_day_halfhour!H4)</f>
         <v/>
       </c>
       <c r="K13" s="47" t="str">
@@ -7029,7 +7074,7 @@
         <v/>
       </c>
       <c r="L13" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J4="","",_jiaore4_day_halfhour!J4/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J4="","",_jiaore4_day_halfhour!J4)</f>
         <v/>
       </c>
       <c r="M13" s="47" t="str">
@@ -7207,7 +7252,7 @@
         <v/>
       </c>
       <c r="J14" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H5="","",_jiaore4_day_halfhour!H5/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H5="","",_jiaore4_day_halfhour!H5)</f>
         <v/>
       </c>
       <c r="K14" s="47" t="str">
@@ -7215,7 +7260,7 @@
         <v/>
       </c>
       <c r="L14" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J5="","",_jiaore4_day_halfhour!J5/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J5="","",_jiaore4_day_halfhour!J5)</f>
         <v/>
       </c>
       <c r="M14" s="47" t="str">
@@ -7393,7 +7438,7 @@
         <v/>
       </c>
       <c r="J15" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H6="","",_jiaore4_day_halfhour!H6/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H6="","",_jiaore4_day_halfhour!H6)</f>
         <v/>
       </c>
       <c r="K15" s="47" t="str">
@@ -7401,7 +7446,7 @@
         <v/>
       </c>
       <c r="L15" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J6="","",_jiaore4_day_halfhour!J6/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J6="","",_jiaore4_day_halfhour!J6)</f>
         <v/>
       </c>
       <c r="M15" s="47" t="str">
@@ -7579,7 +7624,7 @@
         <v/>
       </c>
       <c r="J16" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H7="","",_jiaore4_day_halfhour!H7/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H7="","",_jiaore4_day_halfhour!H7)</f>
         <v/>
       </c>
       <c r="K16" s="47" t="str">
@@ -7587,7 +7632,7 @@
         <v/>
       </c>
       <c r="L16" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J7="","",_jiaore4_day_halfhour!J7/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J7="","",_jiaore4_day_halfhour!J7)</f>
         <v/>
       </c>
       <c r="M16" s="47" t="str">
@@ -7765,7 +7810,7 @@
         <v/>
       </c>
       <c r="J17" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H8="","",_jiaore4_day_halfhour!H8/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H8="","",_jiaore4_day_halfhour!H8)</f>
         <v/>
       </c>
       <c r="K17" s="47" t="str">
@@ -7773,7 +7818,7 @@
         <v/>
       </c>
       <c r="L17" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J8="","",_jiaore4_day_halfhour!J8/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J8="","",_jiaore4_day_halfhour!J8)</f>
         <v/>
       </c>
       <c r="M17" s="47" t="str">
@@ -7951,7 +7996,7 @@
         <v/>
       </c>
       <c r="J18" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H9="","",_jiaore4_day_halfhour!H9/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H9="","",_jiaore4_day_halfhour!H9)</f>
         <v/>
       </c>
       <c r="K18" s="47" t="str">
@@ -7959,7 +8004,7 @@
         <v/>
       </c>
       <c r="L18" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J9="","",_jiaore4_day_halfhour!J9/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J9="","",_jiaore4_day_halfhour!J9)</f>
         <v/>
       </c>
       <c r="M18" s="47" t="str">
@@ -8137,7 +8182,7 @@
         <v/>
       </c>
       <c r="J19" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H10="","",_jiaore4_day_halfhour!H10/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H10="","",_jiaore4_day_halfhour!H10)</f>
         <v/>
       </c>
       <c r="K19" s="47" t="str">
@@ -8145,7 +8190,7 @@
         <v/>
       </c>
       <c r="L19" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J10="","",_jiaore4_day_halfhour!J10/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J10="","",_jiaore4_day_halfhour!J10)</f>
         <v/>
       </c>
       <c r="M19" s="47" t="str">
@@ -8323,7 +8368,7 @@
         <v/>
       </c>
       <c r="J20" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H11="","",_jiaore4_day_halfhour!H11/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H11="","",_jiaore4_day_halfhour!H11)</f>
         <v/>
       </c>
       <c r="K20" s="47" t="str">
@@ -8331,7 +8376,7 @@
         <v/>
       </c>
       <c r="L20" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J11="","",_jiaore4_day_halfhour!J11/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J11="","",_jiaore4_day_halfhour!J11)</f>
         <v/>
       </c>
       <c r="M20" s="47" t="str">
@@ -8509,7 +8554,7 @@
         <v/>
       </c>
       <c r="J21" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H12="","",_jiaore4_day_halfhour!H12/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H12="","",_jiaore4_day_halfhour!H12)</f>
         <v/>
       </c>
       <c r="K21" s="47" t="str">
@@ -8517,7 +8562,7 @@
         <v/>
       </c>
       <c r="L21" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J12="","",_jiaore4_day_halfhour!J12/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J12="","",_jiaore4_day_halfhour!J12)</f>
         <v/>
       </c>
       <c r="M21" s="47" t="str">
@@ -8695,7 +8740,7 @@
         <v/>
       </c>
       <c r="J22" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H13="","",_jiaore4_day_halfhour!H13/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H13="","",_jiaore4_day_halfhour!H13)</f>
         <v/>
       </c>
       <c r="K22" s="47" t="str">
@@ -8703,7 +8748,7 @@
         <v/>
       </c>
       <c r="L22" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J13="","",_jiaore4_day_halfhour!J13/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J13="","",_jiaore4_day_halfhour!J13)</f>
         <v/>
       </c>
       <c r="M22" s="47" t="str">
@@ -8881,7 +8926,7 @@
         <v/>
       </c>
       <c r="J23" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H14="","",_jiaore4_day_halfhour!H14/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H14="","",_jiaore4_day_halfhour!H14)</f>
         <v/>
       </c>
       <c r="K23" s="47" t="str">
@@ -8889,7 +8934,7 @@
         <v/>
       </c>
       <c r="L23" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J14="","",_jiaore4_day_halfhour!J14/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J14="","",_jiaore4_day_halfhour!J14)</f>
         <v/>
       </c>
       <c r="M23" s="47" t="str">
@@ -9067,7 +9112,7 @@
         <v/>
       </c>
       <c r="J24" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H15="","",_jiaore4_day_halfhour!H15/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H15="","",_jiaore4_day_halfhour!H15)</f>
         <v/>
       </c>
       <c r="K24" s="47" t="str">
@@ -9075,7 +9120,7 @@
         <v/>
       </c>
       <c r="L24" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J15="","",_jiaore4_day_halfhour!J15/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J15="","",_jiaore4_day_halfhour!J15)</f>
         <v/>
       </c>
       <c r="M24" s="47" t="str">
@@ -9253,7 +9298,7 @@
         <v/>
       </c>
       <c r="J25" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H16="","",_jiaore4_day_halfhour!H16/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H16="","",_jiaore4_day_halfhour!H16)</f>
         <v/>
       </c>
       <c r="K25" s="47" t="str">
@@ -9261,7 +9306,7 @@
         <v/>
       </c>
       <c r="L25" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J16="","",_jiaore4_day_halfhour!J16/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J16="","",_jiaore4_day_halfhour!J16)</f>
         <v/>
       </c>
       <c r="M25" s="47" t="str">
@@ -9439,7 +9484,7 @@
         <v/>
       </c>
       <c r="J26" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H17="","",_jiaore4_day_halfhour!H17/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H17="","",_jiaore4_day_halfhour!H17)</f>
         <v/>
       </c>
       <c r="K26" s="47" t="str">
@@ -9447,7 +9492,7 @@
         <v/>
       </c>
       <c r="L26" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J17="","",_jiaore4_day_halfhour!J17/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J17="","",_jiaore4_day_halfhour!J17)</f>
         <v/>
       </c>
       <c r="M26" s="47" t="str">
@@ -9625,7 +9670,7 @@
         <v/>
       </c>
       <c r="J27" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H18="","",_jiaore4_day_halfhour!H18/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H18="","",_jiaore4_day_halfhour!H18)</f>
         <v/>
       </c>
       <c r="K27" s="47" t="str">
@@ -9633,7 +9678,7 @@
         <v/>
       </c>
       <c r="L27" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J18="","",_jiaore4_day_halfhour!J18/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J18="","",_jiaore4_day_halfhour!J18)</f>
         <v/>
       </c>
       <c r="M27" s="47" t="str">
@@ -9811,7 +9856,7 @@
         <v/>
       </c>
       <c r="J28" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H19="","",_jiaore4_day_halfhour!H19/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H19="","",_jiaore4_day_halfhour!H19)</f>
         <v/>
       </c>
       <c r="K28" s="47" t="str">
@@ -9819,7 +9864,7 @@
         <v/>
       </c>
       <c r="L28" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J19="","",_jiaore4_day_halfhour!J19/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J19="","",_jiaore4_day_halfhour!J19)</f>
         <v/>
       </c>
       <c r="M28" s="47" t="str">
@@ -9997,7 +10042,7 @@
         <v/>
       </c>
       <c r="J29" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H20="","",_jiaore4_day_halfhour!H20/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H20="","",_jiaore4_day_halfhour!H20)</f>
         <v/>
       </c>
       <c r="K29" s="47" t="str">
@@ -10005,7 +10050,7 @@
         <v/>
       </c>
       <c r="L29" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J20="","",_jiaore4_day_halfhour!J20/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J20="","",_jiaore4_day_halfhour!J20)</f>
         <v/>
       </c>
       <c r="M29" s="47" t="str">
@@ -10183,7 +10228,7 @@
         <v/>
       </c>
       <c r="J30" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H21="","",_jiaore4_day_halfhour!H21/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H21="","",_jiaore4_day_halfhour!H21)</f>
         <v/>
       </c>
       <c r="K30" s="47" t="str">
@@ -10191,7 +10236,7 @@
         <v/>
       </c>
       <c r="L30" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J21="","",_jiaore4_day_halfhour!J21/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J21="","",_jiaore4_day_halfhour!J21)</f>
         <v/>
       </c>
       <c r="M30" s="47" t="str">
@@ -10369,7 +10414,7 @@
         <v/>
       </c>
       <c r="J31" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H22="","",_jiaore4_day_halfhour!H22/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H22="","",_jiaore4_day_halfhour!H22)</f>
         <v/>
       </c>
       <c r="K31" s="47" t="str">
@@ -10377,7 +10422,7 @@
         <v/>
       </c>
       <c r="L31" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J22="","",_jiaore4_day_halfhour!J22/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J22="","",_jiaore4_day_halfhour!J22)</f>
         <v/>
       </c>
       <c r="M31" s="47" t="str">
@@ -10555,7 +10600,7 @@
         <v/>
       </c>
       <c r="J32" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H23="","",_jiaore4_day_halfhour!H23/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H23="","",_jiaore4_day_halfhour!H23)</f>
         <v/>
       </c>
       <c r="K32" s="47" t="str">
@@ -10563,7 +10608,7 @@
         <v/>
       </c>
       <c r="L32" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J23="","",_jiaore4_day_halfhour!J23/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J23="","",_jiaore4_day_halfhour!J23)</f>
         <v/>
       </c>
       <c r="M32" s="47" t="str">
@@ -10741,7 +10786,7 @@
         <v/>
       </c>
       <c r="J33" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H24="","",_jiaore4_day_halfhour!H24/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H24="","",_jiaore4_day_halfhour!H24)</f>
         <v/>
       </c>
       <c r="K33" s="47" t="str">
@@ -10749,7 +10794,7 @@
         <v/>
       </c>
       <c r="L33" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J24="","",_jiaore4_day_halfhour!J24/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J24="","",_jiaore4_day_halfhour!J24)</f>
         <v/>
       </c>
       <c r="M33" s="47" t="str">
@@ -10927,7 +10972,7 @@
         <v/>
       </c>
       <c r="J34" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H25="","",_jiaore4_day_halfhour!H25/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H25="","",_jiaore4_day_halfhour!H25)</f>
         <v/>
       </c>
       <c r="K34" s="47" t="str">
@@ -10935,7 +10980,7 @@
         <v/>
       </c>
       <c r="L34" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J25="","",_jiaore4_day_halfhour!J25/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J25="","",_jiaore4_day_halfhour!J25)</f>
         <v/>
       </c>
       <c r="M34" s="47" t="str">
@@ -11113,7 +11158,7 @@
         <v/>
       </c>
       <c r="J35" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H26="","",_jiaore4_day_halfhour!H26/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H26="","",_jiaore4_day_halfhour!H26)</f>
         <v/>
       </c>
       <c r="K35" s="47" t="str">
@@ -11121,7 +11166,7 @@
         <v/>
       </c>
       <c r="L35" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J26="","",_jiaore4_day_halfhour!J26/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J26="","",_jiaore4_day_halfhour!J26)</f>
         <v/>
       </c>
       <c r="M35" s="47" t="str">
@@ -11299,7 +11344,7 @@
         <v/>
       </c>
       <c r="J36" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H27="","",_jiaore4_day_halfhour!H27/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H27="","",_jiaore4_day_halfhour!H27)</f>
         <v/>
       </c>
       <c r="K36" s="47" t="str">
@@ -11307,7 +11352,7 @@
         <v/>
       </c>
       <c r="L36" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J27="","",_jiaore4_day_halfhour!J27/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J27="","",_jiaore4_day_halfhour!J27)</f>
         <v/>
       </c>
       <c r="M36" s="47" t="str">
@@ -11485,7 +11530,7 @@
         <v/>
       </c>
       <c r="J37" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H28="","",_jiaore4_day_halfhour!H28/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H28="","",_jiaore4_day_halfhour!H28)</f>
         <v/>
       </c>
       <c r="K37" s="47" t="str">
@@ -11493,7 +11538,7 @@
         <v/>
       </c>
       <c r="L37" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J28="","",_jiaore4_day_halfhour!J28/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J28="","",_jiaore4_day_halfhour!J28)</f>
         <v/>
       </c>
       <c r="M37" s="47" t="str">
@@ -11671,7 +11716,7 @@
         <v/>
       </c>
       <c r="J38" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H29="","",_jiaore4_day_halfhour!H29/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H29="","",_jiaore4_day_halfhour!H29)</f>
         <v/>
       </c>
       <c r="K38" s="47" t="str">
@@ -11679,7 +11724,7 @@
         <v/>
       </c>
       <c r="L38" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J29="","",_jiaore4_day_halfhour!J29/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J29="","",_jiaore4_day_halfhour!J29)</f>
         <v/>
       </c>
       <c r="M38" s="47" t="str">
@@ -11857,7 +11902,7 @@
         <v/>
       </c>
       <c r="J39" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H30="","",_jiaore4_day_halfhour!H30/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H30="","",_jiaore4_day_halfhour!H30)</f>
         <v/>
       </c>
       <c r="K39" s="47" t="str">
@@ -11865,7 +11910,7 @@
         <v/>
       </c>
       <c r="L39" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J30="","",_jiaore4_day_halfhour!J30/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J30="","",_jiaore4_day_halfhour!J30)</f>
         <v/>
       </c>
       <c r="M39" s="47" t="str">
@@ -12043,7 +12088,7 @@
         <v/>
       </c>
       <c r="J40" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H31="","",_jiaore4_day_halfhour!H31/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H31="","",_jiaore4_day_halfhour!H31)</f>
         <v/>
       </c>
       <c r="K40" s="47" t="str">
@@ -12051,7 +12096,7 @@
         <v/>
       </c>
       <c r="L40" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J31="","",_jiaore4_day_halfhour!J31/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J31="","",_jiaore4_day_halfhour!J31)</f>
         <v/>
       </c>
       <c r="M40" s="47" t="str">
@@ -12229,7 +12274,7 @@
         <v/>
       </c>
       <c r="J41" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H32="","",_jiaore4_day_halfhour!H32/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H32="","",_jiaore4_day_halfhour!H32)</f>
         <v/>
       </c>
       <c r="K41" s="47" t="str">
@@ -12237,7 +12282,7 @@
         <v/>
       </c>
       <c r="L41" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J32="","",_jiaore4_day_halfhour!J32/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J32="","",_jiaore4_day_halfhour!J32)</f>
         <v/>
       </c>
       <c r="M41" s="47" t="str">
@@ -12415,7 +12460,7 @@
         <v/>
       </c>
       <c r="J42" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H33="","",_jiaore4_day_halfhour!H33/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H33="","",_jiaore4_day_halfhour!H33)</f>
         <v/>
       </c>
       <c r="K42" s="47" t="str">
@@ -12423,7 +12468,7 @@
         <v/>
       </c>
       <c r="L42" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J33="","",_jiaore4_day_halfhour!J33/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J33="","",_jiaore4_day_halfhour!J33)</f>
         <v/>
       </c>
       <c r="M42" s="47" t="str">
@@ -12601,7 +12646,7 @@
         <v/>
       </c>
       <c r="J43" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H34="","",_jiaore4_day_halfhour!H34/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H34="","",_jiaore4_day_halfhour!H34)</f>
         <v/>
       </c>
       <c r="K43" s="47" t="str">
@@ -12609,7 +12654,7 @@
         <v/>
       </c>
       <c r="L43" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J34="","",_jiaore4_day_halfhour!J34/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J34="","",_jiaore4_day_halfhour!J34)</f>
         <v/>
       </c>
       <c r="M43" s="47" t="str">
@@ -12787,7 +12832,7 @@
         <v/>
       </c>
       <c r="J44" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H35="","",_jiaore4_day_halfhour!H35/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H35="","",_jiaore4_day_halfhour!H35)</f>
         <v/>
       </c>
       <c r="K44" s="47" t="str">
@@ -12795,7 +12840,7 @@
         <v/>
       </c>
       <c r="L44" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J35="","",_jiaore4_day_halfhour!J35/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J35="","",_jiaore4_day_halfhour!J35)</f>
         <v/>
       </c>
       <c r="M44" s="47" t="str">
@@ -12973,7 +13018,7 @@
         <v/>
       </c>
       <c r="J45" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H36="","",_jiaore4_day_halfhour!H36/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H36="","",_jiaore4_day_halfhour!H36)</f>
         <v/>
       </c>
       <c r="K45" s="47" t="str">
@@ -12981,7 +13026,7 @@
         <v/>
       </c>
       <c r="L45" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J36="","",_jiaore4_day_halfhour!J36/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J36="","",_jiaore4_day_halfhour!J36)</f>
         <v/>
       </c>
       <c r="M45" s="47" t="str">
@@ -13159,7 +13204,7 @@
         <v/>
       </c>
       <c r="J46" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H37="","",_jiaore4_day_halfhour!H37/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H37="","",_jiaore4_day_halfhour!H37)</f>
         <v/>
       </c>
       <c r="K46" s="47" t="str">
@@ -13167,7 +13212,7 @@
         <v/>
       </c>
       <c r="L46" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J37="","",_jiaore4_day_halfhour!J37/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J37="","",_jiaore4_day_halfhour!J37)</f>
         <v/>
       </c>
       <c r="M46" s="47" t="str">
@@ -13345,7 +13390,7 @@
         <v/>
       </c>
       <c r="J47" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H38="","",_jiaore4_day_halfhour!H38/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H38="","",_jiaore4_day_halfhour!H38)</f>
         <v/>
       </c>
       <c r="K47" s="47" t="str">
@@ -13353,7 +13398,7 @@
         <v/>
       </c>
       <c r="L47" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J38="","",_jiaore4_day_halfhour!J38/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J38="","",_jiaore4_day_halfhour!J38)</f>
         <v/>
       </c>
       <c r="M47" s="47" t="str">
@@ -13531,7 +13576,7 @@
         <v/>
       </c>
       <c r="J48" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H39="","",_jiaore4_day_halfhour!H39/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H39="","",_jiaore4_day_halfhour!H39)</f>
         <v/>
       </c>
       <c r="K48" s="47" t="str">
@@ -13539,7 +13584,7 @@
         <v/>
       </c>
       <c r="L48" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J39="","",_jiaore4_day_halfhour!J39/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J39="","",_jiaore4_day_halfhour!J39)</f>
         <v/>
       </c>
       <c r="M48" s="47" t="str">
@@ -13717,7 +13762,7 @@
         <v/>
       </c>
       <c r="J49" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H40="","",_jiaore4_day_halfhour!H40/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H40="","",_jiaore4_day_halfhour!H40)</f>
         <v/>
       </c>
       <c r="K49" s="47" t="str">
@@ -13725,7 +13770,7 @@
         <v/>
       </c>
       <c r="L49" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J40="","",_jiaore4_day_halfhour!J40/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J40="","",_jiaore4_day_halfhour!J40)</f>
         <v/>
       </c>
       <c r="M49" s="47" t="str">
@@ -13903,7 +13948,7 @@
         <v/>
       </c>
       <c r="J50" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H41="","",_jiaore4_day_halfhour!H41/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H41="","",_jiaore4_day_halfhour!H41)</f>
         <v/>
       </c>
       <c r="K50" s="47" t="str">
@@ -13911,7 +13956,7 @@
         <v/>
       </c>
       <c r="L50" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J41="","",_jiaore4_day_halfhour!J41/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J41="","",_jiaore4_day_halfhour!J41)</f>
         <v/>
       </c>
       <c r="M50" s="47" t="str">
@@ -14089,7 +14134,7 @@
         <v/>
       </c>
       <c r="J51" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H42="","",_jiaore4_day_halfhour!H42/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H42="","",_jiaore4_day_halfhour!H42)</f>
         <v/>
       </c>
       <c r="K51" s="47" t="str">
@@ -14097,7 +14142,7 @@
         <v/>
       </c>
       <c r="L51" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J42="","",_jiaore4_day_halfhour!J42/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J42="","",_jiaore4_day_halfhour!J42)</f>
         <v/>
       </c>
       <c r="M51" s="47" t="str">
@@ -14275,7 +14320,7 @@
         <v/>
       </c>
       <c r="J52" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H43="","",_jiaore4_day_halfhour!H43/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H43="","",_jiaore4_day_halfhour!H43)</f>
         <v/>
       </c>
       <c r="K52" s="47" t="str">
@@ -14283,7 +14328,7 @@
         <v/>
       </c>
       <c r="L52" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J43="","",_jiaore4_day_halfhour!J43/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J43="","",_jiaore4_day_halfhour!J43)</f>
         <v/>
       </c>
       <c r="M52" s="47" t="str">
@@ -14461,7 +14506,7 @@
         <v/>
       </c>
       <c r="J53" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H44="","",_jiaore4_day_halfhour!H44/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H44="","",_jiaore4_day_halfhour!H44)</f>
         <v/>
       </c>
       <c r="K53" s="47" t="str">
@@ -14469,7 +14514,7 @@
         <v/>
       </c>
       <c r="L53" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J44="","",_jiaore4_day_halfhour!J44/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J44="","",_jiaore4_day_halfhour!J44)</f>
         <v/>
       </c>
       <c r="M53" s="47" t="str">
@@ -14647,7 +14692,7 @@
         <v/>
       </c>
       <c r="J54" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H45="","",_jiaore4_day_halfhour!H45/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H45="","",_jiaore4_day_halfhour!H45)</f>
         <v/>
       </c>
       <c r="K54" s="47" t="str">
@@ -14655,7 +14700,7 @@
         <v/>
       </c>
       <c r="L54" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J45="","",_jiaore4_day_halfhour!J45/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J45="","",_jiaore4_day_halfhour!J45)</f>
         <v/>
       </c>
       <c r="M54" s="47" t="str">
@@ -14833,7 +14878,7 @@
         <v/>
       </c>
       <c r="J55" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H46="","",_jiaore4_day_halfhour!H46/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H46="","",_jiaore4_day_halfhour!H46)</f>
         <v/>
       </c>
       <c r="K55" s="47" t="str">
@@ -14841,7 +14886,7 @@
         <v/>
       </c>
       <c r="L55" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J46="","",_jiaore4_day_halfhour!J46/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J46="","",_jiaore4_day_halfhour!J46)</f>
         <v/>
       </c>
       <c r="M55" s="47" t="str">
@@ -15019,7 +15064,7 @@
         <v/>
       </c>
       <c r="J56" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H47="","",_jiaore4_day_halfhour!H47/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H47="","",_jiaore4_day_halfhour!H47)</f>
         <v/>
       </c>
       <c r="K56" s="47" t="str">
@@ -15027,7 +15072,7 @@
         <v/>
       </c>
       <c r="L56" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J47="","",_jiaore4_day_halfhour!J47/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J47="","",_jiaore4_day_halfhour!J47)</f>
         <v/>
       </c>
       <c r="M56" s="47" t="str">
@@ -15205,7 +15250,7 @@
         <v/>
       </c>
       <c r="J57" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H48="","",_jiaore4_day_halfhour!H48/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H48="","",_jiaore4_day_halfhour!H48)</f>
         <v/>
       </c>
       <c r="K57" s="47" t="str">
@@ -15213,7 +15258,7 @@
         <v/>
       </c>
       <c r="L57" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J48="","",_jiaore4_day_halfhour!J48/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J48="","",_jiaore4_day_halfhour!J48)</f>
         <v/>
       </c>
       <c r="M57" s="47" t="str">
@@ -15391,7 +15436,7 @@
         <v/>
       </c>
       <c r="J58" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H49="","",_jiaore4_day_halfhour!H49/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H49="","",_jiaore4_day_halfhour!H49)</f>
         <v/>
       </c>
       <c r="K58" s="47" t="str">
@@ -15399,7 +15444,7 @@
         <v/>
       </c>
       <c r="L58" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J49="","",_jiaore4_day_halfhour!J49/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J49="","",_jiaore4_day_halfhour!J49)</f>
         <v/>
       </c>
       <c r="M58" s="47" t="str">
@@ -15577,7 +15622,7 @@
         <v/>
       </c>
       <c r="J59" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!H50="","",_jiaore4_day_halfhour!H50/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!H50="","",_jiaore4_day_halfhour!H50)</f>
         <v/>
       </c>
       <c r="K59" s="47" t="str">
@@ -15585,7 +15630,7 @@
         <v/>
       </c>
       <c r="L59" s="49" t="str">
-        <f>IF(_jiaore4_day_halfhour!J50="","",_jiaore4_day_halfhour!J50/10000)</f>
+        <f>IF(_jiaore4_day_halfhour!J50="","",_jiaore4_day_halfhour!J50)</f>
         <v/>
       </c>
       <c r="M59" s="47" t="str">
@@ -15739,39 +15784,39 @@
         <v/>
       </c>
       <c r="D60" s="48" t="str">
-        <f>IFERROR(D27-D11,"")</f>
+        <f>IFERROR(IF(D11&gt;D27,D27,D27-D11),"")</f>
         <v/>
       </c>
       <c r="E60" s="47" t="str">
         <f>IF(E12="","",AVERAGE(E12:E27))</f>
         <v/>
       </c>
-      <c r="F60" s="49" t="str">
-        <f>IFERROR(F27-F11,"")</f>
+      <c r="F60" s="48" t="str">
+        <f>IFERROR(IF(F11&gt;F27,F27,F27-F11),"")</f>
         <v/>
       </c>
       <c r="G60" s="47" t="str">
         <f>IF(G12="","",AVERAGE(G12:G27))</f>
         <v/>
       </c>
-      <c r="H60" s="49" t="str">
-        <f>IFERROR(H27-H11,"")</f>
+      <c r="H60" s="48" t="str">
+        <f>IFERROR(IF(H11&gt;H27,H27,H27-H11),"")</f>
         <v/>
       </c>
       <c r="I60" s="47" t="str">
         <f>IF(I12="","",AVERAGE(I12:I27))</f>
         <v/>
       </c>
-      <c r="J60" s="49" t="str">
-        <f>IFERROR(J27-J11,"")</f>
+      <c r="J60" s="48" t="str">
+        <f>IFERROR(IF(J11&gt;J27,J27,J27-J11),"")</f>
         <v/>
       </c>
       <c r="K60" s="47" t="str">
         <f>IF(K12="","",AVERAGE(K12:K27))</f>
         <v/>
       </c>
-      <c r="L60" s="49" t="str">
-        <f>IFERROR(L27-L11,"")</f>
+      <c r="L60" s="48" t="str">
+        <f>IFERROR(IF(L11&gt;L27,L27,L27-L11),"")</f>
         <v/>
       </c>
       <c r="M60" s="47" t="str">
@@ -15932,7 +15977,7 @@
         <f>IF(E28="","",AVERAGE(E28:E43))</f>
         <v/>
       </c>
-      <c r="F61" s="49" t="str">
+      <c r="F61" s="48" t="str">
         <f>IFERROR(F43-F27,"")</f>
         <v/>
       </c>
@@ -15940,7 +15985,7 @@
         <f>IF(G28="","",AVERAGE(G28:G43))</f>
         <v/>
       </c>
-      <c r="H61" s="49" t="str">
+      <c r="H61" s="48" t="str">
         <f>IFERROR(H43-H27,"")</f>
         <v/>
       </c>
@@ -15948,7 +15993,7 @@
         <f>IF(I28="","",AVERAGE(I28:I43))</f>
         <v/>
       </c>
-      <c r="J61" s="49" t="str">
+      <c r="J61" s="48" t="str">
         <f>IFERROR(J43-J27,"")</f>
         <v/>
       </c>
@@ -15956,7 +16001,7 @@
         <f>IF(K28="","",AVERAGE(K28:K43))</f>
         <v/>
       </c>
-      <c r="L61" s="49" t="str">
+      <c r="L61" s="48" t="str">
         <f>IFERROR(L43-L27,"")</f>
         <v/>
       </c>
@@ -16118,7 +16163,7 @@
         <f>IF(E44="","",AVERAGE(E44:E59))</f>
         <v/>
       </c>
-      <c r="F62" s="49" t="str">
+      <c r="F62" s="48" t="str">
         <f>IFERROR(F59-F43,"")</f>
         <v/>
       </c>
@@ -16126,7 +16171,7 @@
         <f>IF(G44="","",AVERAGE(G44:G59))</f>
         <v/>
       </c>
-      <c r="H62" s="49" t="str">
+      <c r="H62" s="48" t="str">
         <f>IFERROR(H59-H43,"")</f>
         <v/>
       </c>
@@ -16134,7 +16179,7 @@
         <f>IF(I44="","",AVERAGE(I44:I59))</f>
         <v/>
       </c>
-      <c r="J62" s="49" t="str">
+      <c r="J62" s="48" t="str">
         <f>IFERROR(J59-J43,"")</f>
         <v/>
       </c>
@@ -16142,7 +16187,7 @@
         <f>IF(K44="","",AVERAGE(K44:K59))</f>
         <v/>
       </c>
-      <c r="L62" s="49" t="str">
+      <c r="L62" s="48" t="str">
         <f>IFERROR(L59-L43,"")</f>
         <v/>
       </c>
@@ -16289,303 +16334,303 @@
       <c r="AV62" s="37"/>
     </row>
     <row ht="20.149999999999999" customHeight="1" r="63">
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="47" t="str">
+      <c r="C63" s="53" t="str">
         <f>IF(C12="","",AVERAGE(C12:C59))</f>
         <v/>
       </c>
-      <c r="D63" s="48" t="str">
-        <f>IFERROR(D59-D11,"")</f>
-        <v/>
-      </c>
-      <c r="E63" s="47" t="str">
+      <c r="D63" s="54" t="str">
+        <f>IFERROR(IF((D59-D11)&gt;10,D59-D11,D59),"")</f>
+        <v/>
+      </c>
+      <c r="E63" s="53" t="str">
         <f>IF(E12="","",AVERAGE(E12:E59))</f>
         <v/>
       </c>
-      <c r="F63" s="49" t="str">
-        <f>IFERROR(F59-F11,"")</f>
-        <v/>
-      </c>
-      <c r="G63" s="47" t="str">
+      <c r="F63" s="54" t="str">
+        <f>IFERROR(IF((F59-F11)&gt;10,F59-F11,F59),"")</f>
+        <v/>
+      </c>
+      <c r="G63" s="53" t="str">
         <f>IF(G12="","",AVERAGE(G12:G59))</f>
         <v/>
       </c>
-      <c r="H63" s="49" t="str">
-        <f>IFERROR(H59-H11,"")</f>
-        <v/>
-      </c>
-      <c r="I63" s="47" t="str">
+      <c r="H63" s="54" t="str">
+        <f>IFERROR(IF((H59-H11)&gt;10,H59-H11,H59),"")</f>
+        <v/>
+      </c>
+      <c r="I63" s="53" t="str">
         <f>IF(I12="","",AVERAGE(I12:I59))</f>
         <v/>
       </c>
-      <c r="J63" s="49" t="str">
-        <f>IFERROR(J59-J11,"")</f>
-        <v/>
-      </c>
-      <c r="K63" s="47" t="str">
+      <c r="J63" s="54" t="str">
+        <f>IFERROR(IF((J59-J11)&gt;10,J59-J11,J59),"")</f>
+        <v/>
+      </c>
+      <c r="K63" s="53" t="str">
         <f>IF(K12="","",AVERAGE(K12:K59))</f>
         <v/>
       </c>
-      <c r="L63" s="49" t="str">
-        <f>IFERROR(L59-L11,"")</f>
-        <v/>
-      </c>
-      <c r="M63" s="47" t="str">
+      <c r="L63" s="54" t="str">
+        <f>IFERROR(IF((L59-L11)&gt;10,L59-L11,L59),"")</f>
+        <v/>
+      </c>
+      <c r="M63" s="53" t="str">
         <f>IF(M12="","",AVERAGE(M12:M59))</f>
         <v/>
       </c>
-      <c r="N63" s="47" t="str">
+      <c r="N63" s="53" t="str">
         <f>IF(N12="","",AVERAGE(N12:N59))</f>
         <v/>
       </c>
-      <c r="O63" s="47" t="str">
+      <c r="O63" s="53" t="str">
         <f>IF(O12="","",AVERAGE(O12:O59))</f>
         <v/>
       </c>
-      <c r="P63" s="47" t="str">
+      <c r="P63" s="53" t="str">
         <f>IF(P12="","",AVERAGE(P12:P59))</f>
         <v/>
       </c>
-      <c r="Q63" s="47" t="str">
+      <c r="Q63" s="53" t="str">
         <f>IF(Q12="","",AVERAGE(Q12:Q59))</f>
         <v/>
       </c>
-      <c r="R63" s="47" t="str">
+      <c r="R63" s="53" t="str">
         <f>IF(R12="","",AVERAGE(R12:R59))</f>
         <v/>
       </c>
-      <c r="S63" s="47" t="str">
+      <c r="S63" s="53" t="str">
         <f>IF(S12="","",AVERAGE(S12:S59))</f>
         <v/>
       </c>
-      <c r="T63" s="47" t="str">
+      <c r="T63" s="53" t="str">
         <f>IF(T12="","",AVERAGE(T12:T59))</f>
         <v/>
       </c>
-      <c r="U63" s="47" t="str">
+      <c r="U63" s="53" t="str">
         <f>IF(U12="","",AVERAGE(U12:U59))</f>
         <v/>
       </c>
-      <c r="V63" s="47" t="str">
+      <c r="V63" s="53" t="str">
         <f>IF(V12="","",AVERAGE(V12:V59))</f>
         <v/>
       </c>
-      <c r="W63" s="47" t="str">
+      <c r="W63" s="53" t="str">
         <f>IF(W12="","",AVERAGE(W12:W59))</f>
         <v/>
       </c>
-      <c r="X63" s="47" t="str">
+      <c r="X63" s="53" t="str">
         <f>IF(X12="","",AVERAGE(X12:X59))</f>
         <v/>
       </c>
-      <c r="Y63" s="47" t="str">
+      <c r="Y63" s="53" t="str">
         <f>IF(Y12="","",AVERAGE(Y12:Y59))</f>
         <v/>
       </c>
-      <c r="Z63" s="47" t="str">
+      <c r="Z63" s="53" t="str">
         <f>IF(Z12="","",AVERAGE(Z12:Z59))</f>
         <v/>
       </c>
-      <c r="AA63" s="47" t="str">
+      <c r="AA63" s="53" t="str">
         <f>IF(AA12="","",AVERAGE(AA12:AA59))</f>
         <v/>
       </c>
-      <c r="AB63" s="47" t="str">
+      <c r="AB63" s="53" t="str">
         <f>IF(AB12="","",AVERAGE(AB12:AB59))</f>
         <v/>
       </c>
-      <c r="AC63" s="47" t="str">
+      <c r="AC63" s="53" t="str">
         <f>IF(AC12="","",AVERAGE(AC12:AC59))</f>
         <v/>
       </c>
-      <c r="AD63" s="47" t="str">
+      <c r="AD63" s="53" t="str">
         <f>IF(AD12="","",AVERAGE(AD12:AD59))</f>
         <v/>
       </c>
-      <c r="AE63" s="47" t="str">
+      <c r="AE63" s="53" t="str">
         <f>IF(AE12="","",AVERAGE(AE12:AE59))</f>
         <v/>
       </c>
-      <c r="AF63" s="47" t="str">
+      <c r="AF63" s="53" t="str">
         <f>IF(AF12="","",AVERAGE(AF12:AF59))</f>
         <v/>
       </c>
-      <c r="AG63" s="47" t="str">
+      <c r="AG63" s="53" t="str">
         <f>IF(AG12="","",AVERAGE(AG12:AG59))</f>
         <v/>
       </c>
-      <c r="AH63" s="47" t="str">
+      <c r="AH63" s="53" t="str">
         <f>IF(AH12="","",AVERAGE(AH12:AH59))</f>
         <v/>
       </c>
-      <c r="AI63" s="47" t="str">
+      <c r="AI63" s="53" t="str">
         <f>IF(AI12="","",AVERAGE(AI12:AI59))</f>
         <v/>
       </c>
-      <c r="AJ63" s="47" t="str">
+      <c r="AJ63" s="53" t="str">
         <f>IF(AJ12="","",AVERAGE(AJ12:AJ59))</f>
         <v/>
       </c>
-      <c r="AK63" s="47" t="str">
+      <c r="AK63" s="53" t="str">
         <f>IF(AK12="","",AVERAGE(AK12:AK59))</f>
         <v/>
       </c>
-      <c r="AL63" s="47" t="str">
+      <c r="AL63" s="53" t="str">
         <f>IF(AL12="","",AVERAGE(AL12:AL59))</f>
         <v/>
       </c>
-      <c r="AM63" s="47" t="str">
+      <c r="AM63" s="53" t="str">
         <f>IF(AM12="","",AVERAGE(AM12:AM59))</f>
         <v/>
       </c>
-      <c r="AN63" s="47" t="str">
+      <c r="AN63" s="53" t="str">
         <f>IF(AN12="","",AVERAGE(AN12:AN59))</f>
         <v/>
       </c>
-      <c r="AO63" s="47" t="str">
+      <c r="AO63" s="53" t="str">
         <f>IF(AO12="","",AVERAGE(AO12:AO59))</f>
         <v/>
       </c>
-      <c r="AP63" s="47" t="str">
+      <c r="AP63" s="53" t="str">
         <f>IF(AP12="","",AVERAGE(AP12:AP59))</f>
         <v/>
       </c>
-      <c r="AQ63" s="47" t="str">
+      <c r="AQ63" s="53" t="str">
         <f>IF(AQ12="","",AVERAGE(AQ12:AQ59))</f>
         <v/>
       </c>
-      <c r="AR63" s="47" t="str">
+      <c r="AR63" s="53" t="str">
         <f>IF(AR12="","",AVERAGE(AR12:AR59))</f>
         <v/>
       </c>
-      <c r="AS63" s="47" t="str">
+      <c r="AS63" s="53" t="str">
         <f>IF(AS12="","",AVERAGE(AS12:AS59))</f>
         <v/>
       </c>
-      <c r="AT63" s="47" t="str">
+      <c r="AT63" s="53" t="str">
         <f>IF(AT12="","",AVERAGE(AT12:AT59))</f>
         <v/>
       </c>
-      <c r="AU63" s="50" t="str">
+      <c r="AU63" s="55" t="str">
         <f>IF(AU12="","",AVERAGE(AU12:AU59))</f>
         <v/>
       </c>
-      <c r="AV63" s="37"/>
+      <c r="AV63" s="56"/>
     </row>
     <row ht="87.650000000000006" customHeight="1" r="64">
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="55" t="s">
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="58"/>
+      <c r="M64" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
-      <c r="V64" s="54"/>
-      <c r="W64" s="54"/>
-      <c r="X64" s="55" t="s">
+      <c r="N64" s="59"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="59"/>
+      <c r="S64" s="59"/>
+      <c r="T64" s="59"/>
+      <c r="U64" s="59"/>
+      <c r="V64" s="59"/>
+      <c r="W64" s="59"/>
+      <c r="X64" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="Y64" s="54"/>
-      <c r="Z64" s="54"/>
-      <c r="AA64" s="54"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="54"/>
-      <c r="AD64" s="54"/>
-      <c r="AE64" s="54"/>
-      <c r="AF64" s="54"/>
-      <c r="AG64" s="54"/>
-      <c r="AH64" s="54"/>
-      <c r="AI64" s="56"/>
-      <c r="AJ64" s="57"/>
-      <c r="AK64" s="57"/>
-      <c r="AL64" s="57"/>
-      <c r="AM64" s="57"/>
-      <c r="AN64" s="57"/>
-      <c r="AO64" s="57"/>
-      <c r="AP64" s="57"/>
-      <c r="AQ64" s="57"/>
-      <c r="AR64" s="57"/>
-      <c r="AS64" s="57"/>
-      <c r="AT64" s="57"/>
-      <c r="AU64" s="57"/>
-      <c r="AV64" s="58"/>
+      <c r="Y64" s="59"/>
+      <c r="Z64" s="59"/>
+      <c r="AA64" s="59"/>
+      <c r="AB64" s="59"/>
+      <c r="AC64" s="59"/>
+      <c r="AD64" s="59"/>
+      <c r="AE64" s="59"/>
+      <c r="AF64" s="59"/>
+      <c r="AG64" s="59"/>
+      <c r="AH64" s="59"/>
+      <c r="AI64" s="61"/>
+      <c r="AJ64" s="62"/>
+      <c r="AK64" s="62"/>
+      <c r="AL64" s="62"/>
+      <c r="AM64" s="62"/>
+      <c r="AN64" s="62"/>
+      <c r="AO64" s="62"/>
+      <c r="AP64" s="62"/>
+      <c r="AQ64" s="62"/>
+      <c r="AR64" s="62"/>
+      <c r="AS64" s="62"/>
+      <c r="AT64" s="62"/>
+      <c r="AU64" s="62"/>
+      <c r="AV64" s="63"/>
     </row>
     <row ht="27.75" customHeight="1" r="65">
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="63" t="s">
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="N65" s="64"/>
-      <c r="O65" s="64"/>
-      <c r="P65" s="64"/>
-      <c r="Q65" s="64"/>
-      <c r="R65" s="64"/>
-      <c r="S65" s="64"/>
-      <c r="T65" s="64"/>
-      <c r="U65" s="64"/>
-      <c r="V65" s="64"/>
-      <c r="W65" s="64"/>
-      <c r="X65" s="63" t="s">
+      <c r="N65" s="69"/>
+      <c r="O65" s="69"/>
+      <c r="P65" s="69"/>
+      <c r="Q65" s="69"/>
+      <c r="R65" s="69"/>
+      <c r="S65" s="69"/>
+      <c r="T65" s="69"/>
+      <c r="U65" s="69"/>
+      <c r="V65" s="69"/>
+      <c r="W65" s="69"/>
+      <c r="X65" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="Y65" s="64"/>
-      <c r="Z65" s="64"/>
-      <c r="AA65" s="64"/>
-      <c r="AB65" s="64"/>
-      <c r="AC65" s="64"/>
-      <c r="AD65" s="64"/>
-      <c r="AE65" s="64"/>
-      <c r="AF65" s="64"/>
-      <c r="AG65" s="64"/>
-      <c r="AH65" s="65"/>
-      <c r="AI65" s="66"/>
-      <c r="AJ65" s="67"/>
-      <c r="AK65" s="67"/>
-      <c r="AL65" s="67"/>
-      <c r="AM65" s="67"/>
-      <c r="AN65" s="67"/>
-      <c r="AO65" s="67"/>
-      <c r="AP65" s="67"/>
-      <c r="AQ65" s="67"/>
-      <c r="AR65" s="67"/>
-      <c r="AS65" s="67"/>
-      <c r="AT65" s="67"/>
-      <c r="AU65" s="67"/>
-      <c r="AV65" s="68"/>
+      <c r="Y65" s="69"/>
+      <c r="Z65" s="69"/>
+      <c r="AA65" s="69"/>
+      <c r="AB65" s="69"/>
+      <c r="AC65" s="69"/>
+      <c r="AD65" s="69"/>
+      <c r="AE65" s="69"/>
+      <c r="AF65" s="69"/>
+      <c r="AG65" s="69"/>
+      <c r="AH65" s="70"/>
+      <c r="AI65" s="71"/>
+      <c r="AJ65" s="72"/>
+      <c r="AK65" s="72"/>
+      <c r="AL65" s="72"/>
+      <c r="AM65" s="72"/>
+      <c r="AN65" s="72"/>
+      <c r="AO65" s="72"/>
+      <c r="AP65" s="72"/>
+      <c r="AQ65" s="72"/>
+      <c r="AR65" s="72"/>
+      <c r="AS65" s="72"/>
+      <c r="AT65" s="72"/>
+      <c r="AU65" s="72"/>
+      <c r="AV65" s="73"/>
     </row>
     <row r="66">
-      <c r="C66" s="69"/>
+      <c r="C66" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -20665,37 +20710,37 @@
       <c r="AJ1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="73" t="s">
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="AU1" s="72" t="s">
+      <c r="AU1" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="AV1" s="72" t="s">
+      <c r="AV1" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="AW1" s="72" t="s">
+      <c r="AW1" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="AY1" s="72" t="s">
+      <c r="AY1" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="AZ1" s="72" t="s">
+      <c r="AZ1" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="BA1" s="72" t="s">
+      <c r="BA1" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="BB1" s="72" t="s">
+      <c r="BB1" s="77" t="s">
         <v>115</v>
       </c>
     </row>
@@ -21011,7 +21056,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row ht="15.5" r="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="79" t="s">
         <v>116</v>
       </c>
       <c r="B1" s="0">
